--- a/Vadose_Zone_Field_Sheets.xlsx
+++ b/Vadose_Zone_Field_Sheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/mnguye10_student_ubc_ca/Documents/EOSC 428 - Team 2/Field Data/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirei/Documents/UBC/EOSC/EOSC428/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="262" documentId="13_ncr:1_{A8D6E655-D820-4A83-BAA4-D55A3913A648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F96F916-FC2E-4B7F-9B0A-9FE302264B7D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36D289D-417F-ED4E-AE5E-143CD2E35387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tensiometers" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="113">
   <si>
     <t>Group Number:</t>
   </si>
@@ -1332,7 +1332,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1460,13 +1460,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF080809"/>
       <name val="Segoe UI Historic"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1688,7 +1688,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1777,6 +1777,8 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1792,9 +1794,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -1842,8 +1841,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16259175" y="0"/>
-          <a:ext cx="2243137" cy="4276724"/>
+          <a:off x="18565813" y="0"/>
+          <a:ext cx="2243137" cy="4317999"/>
           <a:chOff x="18830925" y="2895602"/>
           <a:chExt cx="2243137" cy="3506789"/>
         </a:xfrm>
@@ -7694,8 +7693,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="12904791" y="588171"/>
-          <a:ext cx="2420939" cy="809626"/>
+          <a:off x="14695491" y="591346"/>
+          <a:ext cx="2420939" cy="819151"/>
           <a:chOff x="2910" y="1446"/>
           <a:chExt cx="1525" cy="501"/>
         </a:xfrm>
@@ -9396,8 +9395,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10567988" y="990600"/>
-          <a:ext cx="5235575" cy="3902868"/>
+          <a:off x="11818938" y="1000125"/>
+          <a:ext cx="5775325" cy="3940968"/>
           <a:chOff x="684" y="1740"/>
           <a:chExt cx="3058" cy="2091"/>
         </a:xfrm>
@@ -9923,8 +9922,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9663113" y="142875"/>
-          <a:ext cx="1865313" cy="3926681"/>
+          <a:off x="10914063" y="142875"/>
+          <a:ext cx="2103438" cy="3964781"/>
           <a:chOff x="3388" y="369"/>
           <a:chExt cx="1175" cy="2470"/>
         </a:xfrm>
@@ -10343,7 +10342,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>336550</xdr:colOff>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>127000</xdr:rowOff>
         </xdr:from>
@@ -10351,7 +10350,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>1612900</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10376,11 +10375,11 @@
               <a:avLst/>
             </a:prstGeom>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:ln w="9525">
               <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
@@ -10911,19 +10910,19 @@
   </sheetPr>
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="64" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="10" width="25.7109375" customWidth="1"/>
-    <col min="11" max="11" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:9" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10940,14 +10939,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="24.95" customHeight="1">
+    <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="41"/>
       <c r="F2" s="13" t="s">
         <v>6</v>
       </c>
@@ -10955,11 +10954,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24.95" customHeight="1">
-      <c r="C3" s="38" t="s">
+    <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="39"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
@@ -10970,11 +10969,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="24.95" customHeight="1">
-      <c r="C4" s="38" t="s">
+    <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="12" t="s">
         <v>9</v>
       </c>
@@ -10985,11 +10984,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="24.95" customHeight="1">
-      <c r="C5" s="38" t="s">
+    <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="41"/>
       <c r="F5" t="s">
         <v>15</v>
       </c>
@@ -10997,14 +10996,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
+    <row r="6" spans="1:9" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
       <c r="F6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="24.95" customHeight="1">
+    <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="F7" t="s">
@@ -11014,7 +11013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
+    <row r="8" spans="1:9" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="17" t="s">
@@ -11024,7 +11023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
+    <row r="9" spans="1:9" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -11040,7 +11039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
+    <row r="10" spans="1:9" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="17" t="s">
         <v>22</v>
       </c>
@@ -11048,7 +11047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
+    <row r="11" spans="1:9" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -11061,7 +11060,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="24.95" customHeight="1">
+    <row r="12" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -11069,7 +11068,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
+    <row r="13" spans="1:9" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -11079,7 +11078,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
+    <row r="14" spans="1:9" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -11087,7 +11086,7 @@
       <c r="C14" s="31"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
+    <row r="15" spans="1:9" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -11095,18 +11094,18 @@
       <c r="C15" s="31"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="24.95" customHeight="1">
-      <c r="A16" s="44" t="s">
+    <row r="16" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:11" ht="24.95" customHeight="1">
+    <row r="17" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="18" spans="1:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="15" t="s">
         <v>32</v>
       </c>
@@ -11132,7 +11131,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="50.1" thickBot="1">
+    <row r="19" spans="1:11" ht="53" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>40</v>
       </c>
@@ -11167,79 +11166,85 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="24.95" customHeight="1">
+    <row r="20" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="33">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
       <c r="D20" s="4">
-        <f>C20*0.102</f>
+        <f t="shared" ref="D20:D22" si="0">C20*0.102</f>
         <v>0</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="4">
-        <f>E20+$E$9</f>
+        <f t="shared" ref="F20:F22" si="1">E20+$E$9</f>
         <v>0.16</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="3">
+        <v>20</v>
+      </c>
       <c r="H20" s="4">
-        <f>G20*0.102</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="4"/>
+        <f t="shared" ref="H20:H22" si="2">G20*0.102</f>
+        <v>2.04</v>
+      </c>
+      <c r="I20" s="3"/>
       <c r="J20" s="4">
-        <f>I20+$E$11</f>
+        <f t="shared" ref="J20:J22" si="3">I20+$E$11</f>
         <v>0.2</v>
       </c>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="24.95" customHeight="1">
+    <row r="21" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="33">
-        <v>0.51041666666666663</v>
+        <v>0.65625</v>
       </c>
       <c r="C21" s="3">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" ref="D21:D23" si="0">C21*0.102</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4.9979999999999993</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="4">
-        <f t="shared" ref="F21:G23" si="1">E21+$E$9</f>
+        <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
       <c r="G21" s="3">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" ref="H21:I23" si="2">G21*0.102</f>
-        <v>2.04</v>
+        <f t="shared" si="2"/>
+        <v>4.6919999999999993</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="4">
-        <f t="shared" ref="J21:J23" si="3">I21+$E$11</f>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A22" s="4" t="s">
-        <v>51</v>
+    <row r="22" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B22" s="33">
-        <v>0.65625</v>
+        <v>0.37152777777777779</v>
       </c>
       <c r="C22" s="3">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
-        <v>4.9979999999999993</v>
+        <v>7.8539999999999992</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="4">
@@ -11247,11 +11252,11 @@
         <v>0.16</v>
       </c>
       <c r="G22" s="3">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" si="2"/>
-        <v>4.6919999999999993</v>
+        <v>6.9359999999999999</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="4">
@@ -11260,40 +11265,20 @@
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="33">
-        <v>0.37152777777777779</v>
-      </c>
-      <c r="C23" s="3">
-        <v>77</v>
-      </c>
-      <c r="D23" s="4">
-        <f t="shared" si="0"/>
-        <v>7.8539999999999992</v>
-      </c>
+    <row r="23" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="4">
-        <f t="shared" si="1"/>
-        <v>0.16</v>
-      </c>
-      <c r="G23" s="3">
-        <v>68</v>
-      </c>
-      <c r="H23" s="4">
-        <f t="shared" si="2"/>
-        <v>6.9359999999999999</v>
-      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="4">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
+      <c r="J23" s="4"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="24.95" customHeight="1">
+    <row r="24" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -11306,7 +11291,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" ht="24.95" customHeight="1">
+    <row r="25" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -11319,7 +11304,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11" ht="24.95" customHeight="1">
+    <row r="26" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -11332,7 +11317,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" ht="24.95" customHeight="1">
+    <row r="27" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -11345,7 +11330,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" ht="24.95" customHeight="1">
+    <row r="28" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -11358,7 +11343,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" ht="24.95" customHeight="1">
+    <row r="29" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -11371,7 +11356,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11" ht="24.95" customHeight="1">
+    <row r="30" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -11384,7 +11369,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -11397,7 +11382,7 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" ht="24.95" customHeight="1">
+    <row r="32" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -11410,7 +11395,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" ht="24.95" customHeight="1">
+    <row r="33" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -11423,7 +11408,7 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="34" spans="1:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="17" t="s">
         <v>53</v>
       </c>
@@ -11431,7 +11416,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="35" spans="1:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>40</v>
       </c>
@@ -11448,84 +11433,84 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="24.95" customHeight="1">
+    <row r="36" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:11" ht="24.95" customHeight="1">
+    <row r="37" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:11" ht="24.95" customHeight="1">
+    <row r="38" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:11" ht="24.95" customHeight="1">
+    <row r="39" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:11" ht="24.95" customHeight="1">
+    <row r="40" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:11" ht="24.95" customHeight="1">
+    <row r="41" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:11" ht="24.95" customHeight="1">
+    <row r="42" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:11" ht="24.95" customHeight="1">
+    <row r="43" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:11" ht="24.95" customHeight="1">
+    <row r="44" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="24.95" customHeight="1">
+    <row r="45" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:11" ht="24.95" customHeight="1">
+    <row r="46" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:11" ht="24.95" customHeight="1">
+    <row r="47" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -11561,19 +11546,19 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1"/>
-    <col min="9" max="9" width="50.7109375" customWidth="1"/>
-    <col min="10" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="31.5" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+    <col min="9" max="9" width="50.6640625" customWidth="1"/>
+    <col min="10" max="11" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11581,54 +11566,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="39"/>
-    </row>
-    <row r="3" spans="1:6" ht="24.95" customHeight="1" thickBot="1">
-      <c r="C3" s="38" t="s">
+      <c r="D2" s="41"/>
+    </row>
+    <row r="3" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="39"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24.95" customHeight="1" thickBot="1">
-      <c r="C4" s="38" t="s">
+    <row r="4" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="41"/>
       <c r="F4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24.95" customHeight="1" thickBot="1">
-      <c r="C5" s="38" t="s">
+    <row r="5" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="41"/>
       <c r="F5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24.95" customHeight="1" thickBot="1">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-    </row>
-    <row r="7" spans="1:6" ht="24.95" customHeight="1">
+    <row r="6" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+    </row>
+    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="24.95" customHeight="1" thickBot="1">
+    <row r="8" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="24.95" customHeight="1" thickBot="1">
+    <row r="9" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -11637,13 +11622,13 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1" thickBot="1">
+    <row r="10" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="24.95" customHeight="1" thickBot="1">
+    <row r="11" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -11653,7 +11638,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1" thickBot="1">
+    <row r="12" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -11662,18 +11647,18 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="24.95" customHeight="1">
+    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="24.95" customHeight="1" thickBot="1">
+    <row r="14" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="24.95" customHeight="1" thickBot="1">
+    <row r="15" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -11681,7 +11666,7 @@
       <c r="C15" s="31"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="24.95" customHeight="1" thickBot="1">
+    <row r="16" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -11689,14 +11674,14 @@
       <c r="C16" s="31"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="24.95" customHeight="1">
-      <c r="A17" s="44" t="s">
+    <row r="17" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
         <v>64</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
+    <row r="18" spans="1:9" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="15" t="s">
         <v>22</v>
       </c>
@@ -11716,7 +11701,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="60">
+    <row r="19" spans="1:9" ht="52" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>40</v>
       </c>
@@ -11745,7 +11730,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="24.95" customHeight="1">
+    <row r="20" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>74</v>
       </c>
@@ -11775,7 +11760,7 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="24.95" customHeight="1">
+    <row r="21" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>74</v>
       </c>
@@ -11805,7 +11790,7 @@
       </c>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" ht="24.95" customHeight="1">
+    <row r="22" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>74</v>
       </c>
@@ -11835,7 +11820,7 @@
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" ht="24.95" customHeight="1">
+    <row r="23" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>74</v>
       </c>
@@ -11865,7 +11850,7 @@
       </c>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" ht="24.95" customHeight="1">
+    <row r="24" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>74</v>
       </c>
@@ -11895,7 +11880,7 @@
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="24.95" customHeight="1">
+    <row r="25" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>74</v>
       </c>
@@ -11925,7 +11910,7 @@
       </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="24.95" customHeight="1">
+    <row r="26" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>74</v>
       </c>
@@ -11955,7 +11940,7 @@
       </c>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="24.95" customHeight="1">
+    <row r="27" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>74</v>
       </c>
@@ -11985,7 +11970,7 @@
       </c>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="24.95" customHeight="1">
+    <row r="28" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>74</v>
       </c>
@@ -12015,7 +12000,7 @@
       </c>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" ht="24.95" customHeight="1">
+    <row r="29" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>74</v>
       </c>
@@ -12045,7 +12030,7 @@
       </c>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" ht="24.95" customHeight="1">
+    <row r="30" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>74</v>
       </c>
@@ -12075,7 +12060,7 @@
       </c>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" ht="24.95" customHeight="1">
+    <row r="31" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>74</v>
       </c>
@@ -12105,7 +12090,7 @@
       </c>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" ht="24.95" customHeight="1">
+    <row r="32" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>74</v>
       </c>
@@ -12135,7 +12120,7 @@
       </c>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9" ht="24.95" customHeight="1">
+    <row r="33" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>74</v>
       </c>
@@ -12165,7 +12150,7 @@
       </c>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" ht="24.95" customHeight="1">
+    <row r="34" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>74</v>
       </c>
@@ -12195,7 +12180,7 @@
       </c>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="24.95" customHeight="1">
+    <row r="35" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -12206,7 +12191,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="24.95" customHeight="1">
+    <row r="36" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -12217,7 +12202,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="24.95" customHeight="1">
+    <row r="37" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -12228,7 +12213,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9" ht="24.95" customHeight="1">
+    <row r="38" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -12239,7 +12224,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:9" ht="24.95" customHeight="1">
+    <row r="39" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -12250,7 +12235,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:9" ht="24.95" customHeight="1">
+    <row r="40" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -12261,7 +12246,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9" ht="24.95" customHeight="1">
+    <row r="41" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -12272,7 +12257,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:9" ht="24.95" customHeight="1">
+    <row r="42" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -12283,7 +12268,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" ht="24.95" customHeight="1">
+    <row r="43" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -12294,7 +12279,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="24.95" customHeight="1">
+    <row r="44" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -12305,7 +12290,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" ht="24.95" customHeight="1">
+    <row r="45" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -12316,7 +12301,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" ht="24.95" customHeight="1">
+    <row r="46" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -12327,7 +12312,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:9" ht="24.95" customHeight="1">
+    <row r="47" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -12338,7 +12323,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:9" ht="24.95" customHeight="1">
+    <row r="48" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -12349,7 +12334,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="1:9" ht="24.95" customHeight="1">
+    <row r="49" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -12360,7 +12345,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="1:9" ht="24.95" customHeight="1">
+    <row r="50" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -12371,7 +12356,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="1:9" ht="24.95" customHeight="1">
+    <row r="51" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -12382,7 +12367,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" ht="24.95" customHeight="1">
+    <row r="52" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -12393,7 +12378,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" ht="24.95" customHeight="1">
+    <row r="53" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -12404,7 +12389,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="24.95" customHeight="1">
+    <row r="54" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -12415,7 +12400,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="24.95" customHeight="1">
+    <row r="55" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -12426,7 +12411,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
     </row>
-    <row r="56" spans="1:9" ht="24.95" customHeight="1">
+    <row r="56" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -12437,7 +12422,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" spans="1:9" ht="24.95" customHeight="1">
+    <row r="57" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -12448,7 +12433,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
     </row>
-    <row r="58" spans="1:9" ht="24.95" customHeight="1">
+    <row r="58" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -12459,7 +12444,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
     </row>
-    <row r="59" spans="1:9" ht="24.95" customHeight="1">
+    <row r="59" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -12470,7 +12455,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
     </row>
-    <row r="60" spans="1:9" ht="24.95" customHeight="1">
+    <row r="60" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -12481,7 +12466,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
     </row>
-    <row r="61" spans="1:9" ht="24.95" customHeight="1">
+    <row r="61" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -12492,7 +12477,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="1:9" ht="24.95" customHeight="1">
+    <row r="62" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -12503,7 +12488,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="1:9" ht="24.95" customHeight="1">
+    <row r="63" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -12514,7 +12499,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="1:9" ht="24.95" customHeight="1">
+    <row r="64" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -12525,7 +12510,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="1:9" ht="24.95" customHeight="1">
+    <row r="65" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -12536,7 +12521,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="1:9" ht="24.95" customHeight="1">
+    <row r="66" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -12547,7 +12532,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
     </row>
-    <row r="67" spans="1:9" ht="24.95" customHeight="1">
+    <row r="67" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -12558,7 +12543,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" spans="1:9" ht="24.95" customHeight="1">
+    <row r="68" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -12569,7 +12554,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
     </row>
-    <row r="69" spans="1:9" ht="24.95" customHeight="1">
+    <row r="69" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -12580,7 +12565,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="1:9" ht="24.95" customHeight="1"/>
+    <row r="70" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C2:D2"/>
@@ -12610,15 +12595,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="11" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:5" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12626,38 +12611,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="24.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:5" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="39"/>
-    </row>
-    <row r="3" spans="1:5" ht="24.95" customHeight="1" thickBot="1">
-      <c r="C3" s="38" t="s">
+      <c r="D2" s="41"/>
+    </row>
+    <row r="3" spans="1:5" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="39"/>
-    </row>
-    <row r="4" spans="1:5" ht="24.95" customHeight="1" thickBot="1">
-      <c r="C4" s="38" t="s">
+      <c r="D3" s="41"/>
+    </row>
+    <row r="4" spans="1:5" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="39"/>
-    </row>
-    <row r="5" spans="1:5" ht="24.95" customHeight="1" thickBot="1">
-      <c r="C5" s="38" t="s">
+      <c r="D4" s="41"/>
+    </row>
+    <row r="5" spans="1:5" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="39"/>
-    </row>
-    <row r="6" spans="1:5" ht="24.95" customHeight="1">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-    </row>
-    <row r="7" spans="1:5" ht="24.95" customHeight="1">
+      <c r="D5" s="41"/>
+    </row>
+    <row r="6" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+    </row>
+    <row r="7" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -12667,7 +12652,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="24.95" customHeight="1">
+    <row r="8" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -12679,7 +12664,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="24.95" customHeight="1" thickBot="1">
+    <row r="9" spans="1:5" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -12691,7 +12676,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="24.95" customHeight="1" thickBot="1">
+    <row r="10" spans="1:5" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -12702,7 +12687,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="24.95" customHeight="1">
+    <row r="11" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -12714,7 +12699,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="24.95" customHeight="1">
+    <row r="12" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -12725,11 +12710,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="24.95" customHeight="1">
+    <row r="13" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="27"/>
       <c r="E13" s="28"/>
     </row>
-    <row r="14" spans="1:5" ht="24.95" customHeight="1" thickBot="1">
+    <row r="14" spans="1:5" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>81</v>
       </c>
@@ -12737,7 +12722,7 @@
       <c r="D14" s="27"/>
       <c r="E14" s="28"/>
     </row>
-    <row r="15" spans="1:5" ht="24.95" customHeight="1" thickBot="1">
+    <row r="15" spans="1:5" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -12746,7 +12731,7 @@
       <c r="D15" s="27"/>
       <c r="E15" s="28"/>
     </row>
-    <row r="16" spans="1:5" ht="24.95" customHeight="1" thickBot="1">
+    <row r="16" spans="1:5" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -12755,14 +12740,14 @@
       <c r="D16" s="27"/>
       <c r="E16" s="28"/>
     </row>
-    <row r="17" spans="1:12" ht="24.95" customHeight="1">
+    <row r="17" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="28"/>
     </row>
-    <row r="18" spans="1:12" ht="24.95" customHeight="1" thickBot="1">
+    <row r="18" spans="1:12" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="15"/>
       <c r="C18" s="15" t="s">
         <v>66</v>
@@ -12789,7 +12774,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="73.5" customHeight="1" thickBot="1">
+    <row r="19" spans="1:12" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>40</v>
       </c>
@@ -12827,7 +12812,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="24.95" customHeight="1">
+    <row r="20" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>94</v>
       </c>
@@ -12867,7 +12852,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="24.95" customHeight="1">
+    <row r="21" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3">
@@ -12889,7 +12874,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="24.95" customHeight="1">
+    <row r="22" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3">
@@ -12911,7 +12896,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="24.95" customHeight="1">
+    <row r="23" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3">
@@ -12933,7 +12918,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="24.95" customHeight="1">
+    <row r="24" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3">
@@ -12955,7 +12940,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="24.95" customHeight="1">
+    <row r="25" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3">
@@ -12977,7 +12962,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="24.95" customHeight="1">
+    <row r="26" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3">
@@ -12999,7 +12984,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="24.95" customHeight="1">
+    <row r="27" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3">
@@ -13021,7 +13006,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="24.95" customHeight="1">
+    <row r="28" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3">
@@ -13043,7 +13028,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" ht="24.95" customHeight="1">
+    <row r="29" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3">
@@ -13065,7 +13050,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" ht="24.95" customHeight="1">
+    <row r="30" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3">
@@ -13087,7 +13072,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" ht="24.95" customHeight="1">
+    <row r="31" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3">
@@ -13109,7 +13094,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" ht="24.95" customHeight="1">
+    <row r="32" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3">
@@ -13131,7 +13116,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" ht="24.95" customHeight="1">
+    <row r="33" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3">
@@ -13153,7 +13138,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="24.95" customHeight="1">
+    <row r="34" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3">
@@ -13175,7 +13160,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:12" ht="24.95" customHeight="1">
+    <row r="35" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3">
@@ -13197,7 +13182,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:12" ht="24.95" customHeight="1">
+    <row r="36" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3">
@@ -13219,7 +13204,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:12" ht="24.95" customHeight="1">
+    <row r="37" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3">
@@ -13241,7 +13226,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:12" ht="24.95" customHeight="1">
+    <row r="38" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3">
@@ -13263,7 +13248,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="1:12" ht="24.95" customHeight="1">
+    <row r="39" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3">
@@ -13285,7 +13270,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="1:12" ht="24.95" customHeight="1">
+    <row r="40" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3">
@@ -13307,7 +13292,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="1:12" ht="24.95" customHeight="1">
+    <row r="41" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3">
@@ -13329,7 +13314,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" ht="24.95" customHeight="1">
+    <row r="42" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3">
@@ -13351,7 +13336,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="1:12" ht="24.95" customHeight="1">
+    <row r="43" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -13365,7 +13350,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="1:12" ht="24.95" customHeight="1">
+    <row r="44" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -13379,7 +13364,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="1:12" ht="24.95" customHeight="1">
+    <row r="45" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -13393,7 +13378,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:12" ht="24.95" customHeight="1">
+    <row r="46" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -13407,7 +13392,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="1:12" ht="24.95" customHeight="1">
+    <row r="47" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -13421,7 +13406,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="1:12" ht="24.95" customHeight="1">
+    <row r="48" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -13435,7 +13420,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="1:12" ht="24.95" customHeight="1">
+    <row r="49" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -13449,7 +13434,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:12" ht="24.95" customHeight="1">
+    <row r="50" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -13463,7 +13448,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="1:12" ht="24.95" customHeight="1">
+    <row r="51" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -13477,7 +13462,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="1:12" ht="24.95" customHeight="1">
+    <row r="52" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -13491,7 +13476,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="1:12" ht="24.95" customHeight="1">
+    <row r="53" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -13505,7 +13490,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="1:12" ht="24.95" customHeight="1">
+    <row r="54" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -13519,7 +13504,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="1:12" ht="24.95" customHeight="1">
+    <row r="55" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -13533,25 +13518,25 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="1:12" ht="24.95" customHeight="1"/>
-    <row r="57" spans="1:12" ht="24.95" customHeight="1"/>
-    <row r="58" spans="1:12" ht="24.95" customHeight="1"/>
-    <row r="59" spans="1:12" ht="24.95" customHeight="1"/>
-    <row r="60" spans="1:12" ht="24.95" customHeight="1"/>
-    <row r="61" spans="1:12" ht="24.95" customHeight="1"/>
-    <row r="62" spans="1:12" ht="24.95" customHeight="1"/>
-    <row r="63" spans="1:12" ht="24.95" customHeight="1"/>
-    <row r="64" spans="1:12" ht="24.95" customHeight="1"/>
-    <row r="65" ht="24.95" customHeight="1"/>
-    <row r="66" ht="24.95" customHeight="1"/>
-    <row r="67" ht="24.95" customHeight="1"/>
-    <row r="68" ht="24.95" customHeight="1"/>
-    <row r="69" ht="24.95" customHeight="1"/>
-    <row r="70" ht="24.95" customHeight="1"/>
-    <row r="71" ht="24.95" customHeight="1"/>
-    <row r="72" ht="24.95" customHeight="1"/>
-    <row r="73" ht="24.95" customHeight="1"/>
-    <row r="74" ht="24.95" customHeight="1"/>
+    <row r="56" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C2:D2"/>
@@ -13576,7 +13561,7 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>336550</xdr:colOff>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>127000</xdr:rowOff>
               </from>
@@ -13584,7 +13569,7 @@
                 <xdr:col>5</xdr:col>
                 <xdr:colOff>1612900</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>25400</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -13605,19 +13590,19 @@
   </sheetPr>
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="11" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="11" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13631,42 +13616,42 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="24.95" customHeight="1">
+    <row r="2" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="39"/>
-    </row>
-    <row r="3" spans="1:7" ht="24.95" customHeight="1">
-      <c r="C3" s="38" t="s">
+      <c r="D2" s="41"/>
+    </row>
+    <row r="3" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="42"/>
-    </row>
-    <row r="4" spans="1:7" ht="24.95" customHeight="1">
-      <c r="C4" s="38" t="s">
+      <c r="D3" s="44"/>
+    </row>
+    <row r="4" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="39"/>
-    </row>
-    <row r="5" spans="1:7" ht="24.95" customHeight="1">
-      <c r="C5" s="38" t="s">
+      <c r="D4" s="41"/>
+    </row>
+    <row r="5" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="42"/>
-    </row>
-    <row r="6" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-    </row>
-    <row r="7" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D5" s="44"/>
+    </row>
+    <row r="6" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+    </row>
+    <row r="7" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -13683,33 +13668,33 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
+    <row r="9" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="38">
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
+    <row r="10" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="38">
         <v>7</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
+    <row r="11" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="38">
         <f>0.154^2/4*PI()</f>
         <v>1.8626502843133885E-2</v>
       </c>
@@ -13717,17 +13702,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="24.95" customHeight="1">
+    <row r="12" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D12" s="30"/>
     </row>
-    <row r="13" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
+    <row r="13" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="30"/>
     </row>
-    <row r="14" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
+    <row r="14" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -13735,7 +13720,7 @@
       <c r="C14" s="31"/>
       <c r="D14" s="30"/>
     </row>
-    <row r="15" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
+    <row r="15" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -13743,14 +13728,14 @@
       <c r="C15" s="31"/>
       <c r="D15" s="30"/>
     </row>
-    <row r="16" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A16" s="45" t="s">
+    <row r="16" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>104</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="30"/>
     </row>
-    <row r="17" spans="1:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="17" spans="1:10" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="17" t="s">
         <v>66</v>
       </c>
@@ -13773,7 +13758,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="49.5" customHeight="1" thickBot="1">
+    <row r="18" spans="1:10" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>40</v>
       </c>
@@ -13805,7 +13790,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="24.95" customHeight="1">
+    <row r="19" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
@@ -13825,7 +13810,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" ht="24.95" customHeight="1">
+    <row r="20" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>51</v>
       </c>
@@ -13852,7 +13837,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="24.95" customHeight="1">
+    <row r="21" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>51</v>
       </c>
@@ -13879,16 +13864,16 @@
         <v>220</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" ref="H20:H21" si="2">G21/1440</f>
+        <f t="shared" ref="H21" si="2">G21/1440</f>
         <v>0.15277777777777779</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" ref="I20:I21" si="3">F21/H21</f>
+        <f t="shared" ref="I21" si="3">F21/H21</f>
         <v>9.1365416049932688E-3</v>
       </c>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" ht="24.95" customHeight="1">
+    <row r="22" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -13900,7 +13885,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="24.95" customHeight="1">
+    <row r="23" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -13912,7 +13897,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" ht="24.95" customHeight="1">
+    <row r="24" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -13924,7 +13909,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="24.95" customHeight="1">
+    <row r="25" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -13936,7 +13921,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" ht="24.95" customHeight="1">
+    <row r="26" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -13948,7 +13933,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" ht="24.95" customHeight="1">
+    <row r="27" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -13960,7 +13945,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="24.95" customHeight="1">
+    <row r="28" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -13972,7 +13957,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" ht="24.95" customHeight="1">
+    <row r="29" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -13984,7 +13969,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" ht="24.95" customHeight="1">
+    <row r="30" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -13996,7 +13981,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" ht="24.95" customHeight="1">
+    <row r="31" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -14008,7 +13993,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" ht="24.95" customHeight="1">
+    <row r="32" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -14020,7 +14005,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10" ht="24.95" customHeight="1">
+    <row r="33" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -14032,7 +14017,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10" ht="24.95" customHeight="1">
+    <row r="34" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -14044,7 +14029,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:10" ht="24.95" customHeight="1">
+    <row r="35" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -14056,7 +14041,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10" ht="24.95" customHeight="1">
+    <row r="36" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -14068,7 +14053,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:10" ht="24.95" customHeight="1">
+    <row r="37" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -14080,7 +14065,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10" ht="24.95" customHeight="1">
+    <row r="38" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -14092,7 +14077,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10" ht="24.95" customHeight="1">
+    <row r="39" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -14104,7 +14089,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="1:10" ht="24.95" customHeight="1">
+    <row r="40" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -14116,7 +14101,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="1:10" ht="24.95" customHeight="1">
+    <row r="41" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -14128,7 +14113,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:10" ht="24.95" customHeight="1">
+    <row r="42" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -14140,7 +14125,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="1:10" ht="24.95" customHeight="1">
+    <row r="43" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -14152,7 +14137,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:10" ht="24.95" customHeight="1">
+    <row r="44" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -14164,35 +14149,35 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="1:10" ht="24.95" customHeight="1"/>
-    <row r="46" spans="1:10" ht="24.95" customHeight="1"/>
-    <row r="47" spans="1:10" ht="24.95" customHeight="1"/>
-    <row r="48" spans="1:10" ht="24.95" customHeight="1"/>
-    <row r="49" ht="24.95" customHeight="1"/>
-    <row r="50" ht="24.95" customHeight="1"/>
-    <row r="51" ht="24.95" customHeight="1"/>
-    <row r="52" ht="24.95" customHeight="1"/>
-    <row r="53" ht="24.95" customHeight="1"/>
-    <row r="54" ht="24.95" customHeight="1"/>
-    <row r="55" ht="24.95" customHeight="1"/>
-    <row r="56" ht="24.95" customHeight="1"/>
-    <row r="57" ht="24.95" customHeight="1"/>
-    <row r="58" ht="24.95" customHeight="1"/>
-    <row r="59" ht="24.95" customHeight="1"/>
-    <row r="60" ht="24.95" customHeight="1"/>
-    <row r="61" ht="24.95" customHeight="1"/>
-    <row r="62" ht="24.95" customHeight="1"/>
-    <row r="63" ht="24.95" customHeight="1"/>
-    <row r="64" ht="24.95" customHeight="1"/>
-    <row r="65" ht="24.95" customHeight="1"/>
-    <row r="66" ht="24.95" customHeight="1"/>
-    <row r="67" ht="24.95" customHeight="1"/>
-    <row r="68" ht="24.95" customHeight="1"/>
-    <row r="69" ht="24.95" customHeight="1"/>
-    <row r="70" ht="24.95" customHeight="1"/>
-    <row r="71" ht="24.95" customHeight="1"/>
-    <row r="72" ht="24.95" customHeight="1"/>
-    <row r="73" ht="24.95" customHeight="1"/>
+    <row r="45" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C2:D2"/>
